--- a/biology/Médecine/PerkinElmer/PerkinElmer.xlsx
+++ b/biology/Médecine/PerkinElmer/PerkinElmer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 PerkinElmer est une entreprise américaine spécialisée dans la fabrication de matériel de mesure scientifique. Elle est basée à Wellesley dans le Massachusetts.
@@ -514,17 +526,17 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La société fut fondée en 1937 par Richard Scott Perkin et Charles Elmer comme société de consultants en design en optique.
 Elle fusionne en 1992 avec Applied Biosystems pour former Applera Corporation.
 PerkinElmer est acquise en 1999 par EG&amp;G qui reprend le nom PerkinElmer. 
 La compagnie a abandonné sa filiale qui la représentait dans l'astronomie il y a quelques années.
-En septembre 2011, PelkinElmer annonce l'acquisition de Caliper, spécialisée dans la génomique, pour 600 millions d'euros[1].
-En juin 2017, PerkinElmer annonce l'acquisition de l'entreprise allemande Euroimmun, spécialisée notamment dans les traitements infectieux et ayant 2 400 employés, pour 1,3 milliard de dollars[2].
-En juillet 2021, PerkinElmer annonce l'acquisition de BioLegend, spécialisée dans la production d'anticorps, pour 5,3 milliards de dollars[3].
-Anecdote
-Perkin Elmer fut chargé de polir le miroir principal du télescope spatial Hubble. Or ce n'est qu'après le lancement que l'on s'aperçut que ce travail avait été non conforme et que l'optique du télescope fournissait des images floues. En effet, le miroir présentait une aberration sphérique d'1/50e d'un cheveu humain.
+En septembre 2011, PelkinElmer annonce l'acquisition de Caliper, spécialisée dans la génomique, pour 600 millions d'euros.
+En juin 2017, PerkinElmer annonce l'acquisition de l'entreprise allemande Euroimmun, spécialisée notamment dans les traitements infectieux et ayant 2 400 employés, pour 1,3 milliard de dollars.
+En juillet 2021, PerkinElmer annonce l'acquisition de BioLegend, spécialisée dans la production d'anticorps, pour 5,3 milliards de dollars.
 </t>
         </is>
       </c>
@@ -550,13 +562,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Anecdote</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perkin Elmer fut chargé de polir le miroir principal du télescope spatial Hubble. Or ce n'est qu'après le lancement que l'on s'aperçut que ce travail avait été non conforme et que l'optique du télescope fournissait des images floues. En effet, le miroir présentait une aberration sphérique d'1/50e d'un cheveu humain.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PerkinElmer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/PerkinElmer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Divisions
-PerkinElmer est une société structurée en divisions, indépendantes les unes des autres, avec chacune sa gamme de produits et de services. Elle s'articule autour de 3 divisions commerciales : BioDiscovery (ancien Life Sciences), Genetic Screening et Optoelectronics. Il existe une 4e division, un peu différente, le Service OneSource, qui pourrait se résumer comme un service multivendeur de qualification et de certification des instruments.
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Divisions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PerkinElmer est une société structurée en divisions, indépendantes les unes des autres, avec chacune sa gamme de produits et de services. Elle s'articule autour de 3 divisions commerciales : BioDiscovery (ancien Life Sciences), Genetic Screening et Optoelectronics. Il existe une 4e division, un peu différente, le Service OneSource, qui pourrait se résumer comme un service multivendeur de qualification et de certification des instruments.
 Life Science &amp; Technology
 Il s'agit de la division la plus importante de PerkinElmer. Son chiffre d'affaires représente 64 % du chiffre d'affaires total de PerkinElmer en 2006. Cette division propose toutes sortes d'instruments, de réactifs et de logiciels pour l'analyse thermique, inorganique, la chromatographie, la spectroscopie, les compteurs de radioactivité et les automates pipeteurs.
 Il s'agit de la plus large gamme au monde si l'on regarde l'ensemble des produits instruments-réactifs-logiciels.
@@ -575,31 +629,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>PerkinElmer</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/PerkinElmer</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Produits et services</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Absorption Atomique (AA)
 Analyse &amp; Imagerie Cellulaire (inclut image analysis software)
@@ -637,9 +693,43 @@
 Senseurs
 Specialty Lighting
 Analyse Thermique (TA)
-UV/Vis et UV/Vis/NIR
-Organigramme
-Les PDG de l'entreprise :
+UV/Vis et UV/Vis/NIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PerkinElmer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/PerkinElmer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Produits et services</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Organigramme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les PDG de l'entreprise :
 Gregory Summe : de 1998 à 2007
 Robert Friel : depuis avril 2008
 Autres :
